--- a/data/DeftaultData - 20 cargos - 7 vessels.xlsx
+++ b/data/DeftaultData - 20 cargos - 7 vessels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\s\nirvana\0267 VesselScheduling\vessel-scheduling feature route gen boost\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\s\nirvana\0267 VesselScheduling\vessel-scheduling Feature SolveService\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1131D2-39CF-4E57-A2D9-C00D762E625F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92F41A7-8E4E-4830-B22D-78F22A527650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="-2070" windowWidth="17970" windowHeight="15150" tabRatio="948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" tabRatio="948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizon" sheetId="9" r:id="rId1"/>
@@ -1255,8 +1255,8 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1654,7 @@
         <v>45108</v>
       </c>
       <c r="F17" s="1">
-        <v>45119</v>
+        <v>45167</v>
       </c>
       <c r="G17">
         <v>145</v>
@@ -1677,7 +1677,7 @@
         <v>45056</v>
       </c>
       <c r="F18" s="1">
-        <v>45075</v>
+        <v>45167</v>
       </c>
       <c r="G18">
         <v>146</v>
@@ -1700,7 +1700,7 @@
         <v>45056</v>
       </c>
       <c r="F19" s="1">
-        <v>45075</v>
+        <v>45167</v>
       </c>
       <c r="G19">
         <v>147</v>
@@ -1746,7 +1746,7 @@
         <v>45117</v>
       </c>
       <c r="F21" s="1">
-        <v>45136</v>
+        <v>45167</v>
       </c>
       <c r="G21">
         <v>149</v>
